--- a/sputnik/personal/ee/60ee.xlsx
+++ b/sputnik/personal/ee/60ee.xlsx
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -39,19 +33,25 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>15.12.20018</t>
-  </si>
-  <si>
-    <t>С 01.01.2019</t>
-  </si>
-  <si>
-    <t>доплата</t>
-  </si>
-  <si>
-    <t>Сняли счетчик с показаниями -14535, переплата 65 квт, новый счетчик  с учетом переплаты            - Т1-65 и Т2-0</t>
-  </si>
-  <si>
     <t>Т2</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -100,13 +100,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -115,6 +108,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -128,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,54 +158,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -218,69 +181,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -603,349 +544,289 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43582</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43641</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>218</v>
+      </c>
+      <c r="D4" s="5">
+        <v>153</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
+        <v>699.21</v>
+      </c>
+      <c r="G4" s="6">
+        <f>SUM(F4,F5)</f>
+        <v>806.76</v>
+      </c>
+      <c r="H4" s="6">
+        <v>806.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>107.55000000000001</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>43705</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>370</v>
+      </c>
+      <c r="D6" s="13">
+        <f>C6-C4</f>
+        <v>152</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>682.48</v>
+      </c>
+      <c r="G6" s="6">
+        <f>SUM(F6,F7)</f>
+        <v>777.25</v>
+      </c>
+      <c r="H6" s="6">
+        <v>781.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12">
+        <v>84</v>
+      </c>
+      <c r="D7" s="13">
+        <f>C7-C5</f>
+        <v>39</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>94.77000000000001</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43705</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
         <v>470</v>
       </c>
-      <c r="D2" s="22">
-        <f>C2-C4</f>
+      <c r="D8" s="13">
+        <f>C8-C6</f>
         <v>100</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E8" s="14">
         <v>4.49</v>
       </c>
-      <c r="F2" s="24">
-        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
         <v>449</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="G8" s="6">
+        <f>SUM(F8,F9)</f>
+        <v>568.07000000000005</v>
+      </c>
+      <c r="H8" s="6">
+        <v>568.07000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12">
         <v>133</v>
       </c>
-      <c r="D3" s="22">
-        <f>C3-C5</f>
+      <c r="D9" s="13">
+        <f>C9-C7</f>
         <v>49</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E9" s="12">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>119.07000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>43705</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="21">
-        <v>370</v>
-      </c>
-      <c r="D4" s="22">
-        <f>C4-C6</f>
-        <v>152</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>43892</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
         <v>4.49</v>
       </c>
-      <c r="F4" s="24">
-        <f t="shared" si="0"/>
-        <v>682.48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="20" t="s">
+      <c r="F10" s="17">
+        <v>742.81</v>
+      </c>
+      <c r="G10" s="6">
+        <f>SUM(F10,F11)</f>
+        <v>742.81</v>
+      </c>
+      <c r="H10" s="6">
+        <v>742.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" ref="F11" si="1">D11*E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <f>SUM(G4:G11)</f>
+        <v>2894.89</v>
+      </c>
+      <c r="H12" s="6">
+        <f>SUM(H4:H11)</f>
+        <v>2898.7400000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21">
-        <v>84</v>
-      </c>
-      <c r="D5" s="22">
-        <f>C5-C7</f>
-        <v>39</v>
-      </c>
-      <c r="E5" s="21">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="24">
-        <f t="shared" si="0"/>
-        <v>94.77000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43641</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>218</v>
-      </c>
-      <c r="D6" s="5">
-        <v>153</v>
-      </c>
-      <c r="E6" s="13">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>699.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5">
-        <v>45</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2.39</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>107.55000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43582</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="13">
-        <v>4.57</v>
-      </c>
-      <c r="F9" s="16">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>43536</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>14600</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C11</f>
-        <v>100</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>14500</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C12</f>
-        <v>200</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43358</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>14300</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C13</f>
-        <v>300</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43295</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>14000</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C14</f>
-        <v>200</v>
-      </c>
-      <c r="E13" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43162</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>13800</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:F8"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/60ee.xlsx
+++ b/sputnik/personal/ee/60ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -530,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -807,24 +807,76 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="10">
+        <v>43970</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>805</v>
+      </c>
+      <c r="D12" s="13">
+        <v>240</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="17">
+        <f>PRODUCT(D12,E12)</f>
+        <v>1077.6000000000001</v>
       </c>
       <c r="G12" s="6">
-        <f>SUM(G4:G11)</f>
-        <v>2894.89</v>
+        <f>SUM(F12,F13)</f>
+        <v>1223.4000000000001</v>
       </c>
       <c r="H12" s="6">
-        <f>SUM(H4:H11)</f>
-        <v>2898.7400000000002</v>
+        <v>1223.4000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" s="13"/>
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12">
+        <v>240</v>
+      </c>
+      <c r="D13" s="13">
+        <v>60</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="15">
+        <f>PRODUCT(D13,E13)</f>
+        <v>145.80000000000001</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <f>SUM(G4:G13)</f>
+        <v>4118.29</v>
+      </c>
+      <c r="H14" s="6">
+        <f>SUM(H4:H13)</f>
+        <v>4122.1400000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <f>SUM(H14,-G14)</f>
+        <v>3.8500000000003638</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/60ee.xlsx
+++ b/sputnik/personal/ee/60ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -530,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,25 +856,76 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="10">
+        <v>44018</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="13">
+        <f>C14-C12</f>
+        <v>195</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="17">
+        <f>PRODUCT(D14,E14)</f>
+        <v>875.55000000000007</v>
+      </c>
+      <c r="G14" s="6">
+        <f>SUM(F14,F15)</f>
+        <v>1009.2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1009.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="12">
+        <v>295</v>
+      </c>
+      <c r="D15" s="13">
+        <f>C15-C13</f>
+        <v>55</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="15">
+        <f>PRODUCT(D15,E15)</f>
+        <v>133.65</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="6">
-        <f>SUM(G4:G13)</f>
-        <v>4118.29</v>
-      </c>
-      <c r="H14" s="6">
-        <f>SUM(H4:H13)</f>
-        <v>4122.1400000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="G16" s="6">
+        <f>SUM(G4:G15)</f>
+        <v>5127.49</v>
+      </c>
+      <c r="H16" s="6">
+        <f>SUM(H4:H15)</f>
+        <v>5131.34</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <f>SUM(H16,-G16)</f>
         <v>3.8500000000003638</v>
       </c>
     </row>

--- a/sputnik/personal/ee/60ee.xlsx
+++ b/sputnik/personal/ee/60ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -530,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -907,26 +907,77 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="10">
+        <v>44097</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1250</v>
+      </c>
+      <c r="D16" s="13">
+        <f>C16-C14</f>
+        <v>250</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="17">
+        <f>PRODUCT(D16,E16)</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(F16,F17)</f>
+        <v>1368.75</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1300.9000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="12">
+        <v>370</v>
+      </c>
+      <c r="D17" s="13">
+        <f>C17-C15</f>
+        <v>75</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="15">
+        <f>PRODUCT(D17,E17)</f>
+        <v>191.25</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="6">
-        <f>SUM(G4:G15)</f>
-        <v>5127.49</v>
-      </c>
-      <c r="H16" s="6">
-        <f>SUM(H4:H15)</f>
-        <v>5131.34</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+      <c r="G18" s="6">
+        <f>SUM(G4:G17)</f>
+        <v>6496.24</v>
+      </c>
+      <c r="H18" s="6">
+        <f>SUM(H4:H17)</f>
+        <v>6432.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6">
-        <f>SUM(H16,-G16)</f>
-        <v>3.8500000000003638</v>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <f>SUM(H18,-G18)</f>
+        <v>-64</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/60ee.xlsx
+++ b/sputnik/personal/ee/60ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -533,7 +527,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -823,7 +817,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="17">
-        <f>PRODUCT(D12,E12)</f>
+        <f t="shared" ref="F12:F17" si="2">PRODUCT(D12,E12)</f>
         <v>1077.6000000000001</v>
       </c>
       <c r="G12" s="6">
@@ -849,7 +843,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="15">
-        <f>PRODUCT(D13,E13)</f>
+        <f t="shared" si="2"/>
         <v>145.80000000000001</v>
       </c>
       <c r="G13" s="6"/>
@@ -873,7 +867,7 @@
         <v>4.49</v>
       </c>
       <c r="F14" s="17">
-        <f>PRODUCT(D14,E14)</f>
+        <f t="shared" si="2"/>
         <v>875.55000000000007</v>
       </c>
       <c r="G14" s="6">
@@ -900,7 +894,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="15">
-        <f>PRODUCT(D15,E15)</f>
+        <f t="shared" si="2"/>
         <v>133.65</v>
       </c>
       <c r="G15" s="6"/>
@@ -924,7 +918,7 @@
         <v>4.71</v>
       </c>
       <c r="F16" s="17">
-        <f>PRODUCT(D16,E16)</f>
+        <f t="shared" si="2"/>
         <v>1177.5</v>
       </c>
       <c r="G16" s="6">
@@ -951,34 +945,62 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="15">
-        <f>PRODUCT(D17,E17)</f>
+        <f t="shared" si="2"/>
         <v>191.25</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
-        <v>10</v>
+      <c r="A18" s="10">
+        <v>44175</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1257</v>
+      </c>
+      <c r="D18" s="13">
+        <f>C18-C16</f>
+        <v>7</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" ref="F18:F19" si="3">PRODUCT(D18,E18)</f>
+        <v>32.97</v>
       </c>
       <c r="G18" s="6">
-        <f>SUM(G4:G17)</f>
-        <v>6496.24</v>
+        <f>SUM(F18,F19)</f>
+        <v>-354.63</v>
       </c>
       <c r="H18" s="6">
-        <f>SUM(H4:H17)</f>
-        <v>6432.24</v>
+        <v>1475.9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
-        <v>11</v>
+      <c r="A19" s="13"/>
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12">
+        <v>218</v>
+      </c>
+      <c r="D19" s="13">
+        <f>C19-C17</f>
+        <v>-152</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="3"/>
+        <v>-387.59999999999997</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <f>SUM(H18,-G18)</f>
-        <v>-64</v>
-      </c>
+      <c r="H19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/60ee.xlsx
+++ b/sputnik/personal/ee/60ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -217,6 +217,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -524,10 +525,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J13" sqref="J13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -860,7 +861,7 @@
         <v>1000</v>
       </c>
       <c r="D14" s="13">
-        <f>C14-C12</f>
+        <f t="shared" ref="D14:D21" si="3">C14-C12</f>
         <v>195</v>
       </c>
       <c r="E14" s="14">
@@ -887,7 +888,7 @@
         <v>295</v>
       </c>
       <c r="D15" s="13">
-        <f>C15-C13</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="E15" s="12">
@@ -911,7 +912,7 @@
         <v>1250</v>
       </c>
       <c r="D16" s="13">
-        <f>C16-C14</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="E16" s="14">
@@ -938,7 +939,7 @@
         <v>370</v>
       </c>
       <c r="D17" s="13">
-        <f>C17-C15</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="E17" s="12">
@@ -959,22 +960,22 @@
         <v>0</v>
       </c>
       <c r="C18" s="16">
-        <v>1257</v>
+        <v>1530</v>
       </c>
       <c r="D18" s="13">
-        <f>C18-C16</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>280</v>
       </c>
       <c r="E18" s="14">
         <v>4.71</v>
       </c>
       <c r="F18" s="17">
-        <f t="shared" ref="F18:F19" si="3">PRODUCT(D18,E18)</f>
-        <v>32.97</v>
+        <f t="shared" ref="F18:F19" si="4">PRODUCT(D18,E18)</f>
+        <v>1318.8</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(F18,F19)</f>
-        <v>-354.63</v>
+        <v>1548.3</v>
       </c>
       <c r="H18" s="6">
         <v>1475.9</v>
@@ -986,21 +987,89 @@
         <v>5</v>
       </c>
       <c r="C19" s="12">
-        <v>218</v>
+        <v>460</v>
       </c>
       <c r="D19" s="13">
-        <f>C19-C17</f>
-        <v>-152</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="E19" s="12">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="3"/>
-        <v>-387.59999999999997</v>
+        <f t="shared" si="4"/>
+        <v>229.49999999999997</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>44251</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1730</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" ref="F20:F21" si="5">PRODUCT(D20,E20)</f>
+        <v>942</v>
+      </c>
+      <c r="G20" s="6">
+        <f>SUM(F20,F21)</f>
+        <v>1095</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="12">
+        <v>520</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="20">
+        <f>SUM(G2:G21)</f>
+        <v>9139.5400000000009</v>
+      </c>
+      <c r="H22" s="20">
+        <f>SUM(H2:H21)</f>
+        <v>9093.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+      <c r="H23" s="20">
+        <f>SUM(H22,-G22)</f>
+        <v>-46.400000000001455</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/60ee.xlsx
+++ b/sputnik/personal/ee/60ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -217,7 +217,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,7 +527,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:K13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1055,21 +1054,55 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="20">
-        <f>SUM(G2:G21)</f>
-        <v>9139.5400000000009</v>
-      </c>
-      <c r="H22" s="20">
-        <f>SUM(H2:H21)</f>
-        <v>9093.14</v>
+      <c r="A22" s="10">
+        <v>44333</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1880</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" ref="D22:D23" si="6">C22-C20</f>
+        <v>150</v>
+      </c>
+      <c r="E22" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" ref="F22:F23" si="7">PRODUCT(D22,E22)</f>
+        <v>706.5</v>
+      </c>
+      <c r="G22" s="6">
+        <f>SUM(F22,F23)</f>
+        <v>859.5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>859.5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="2"/>
-      <c r="H23" s="20">
-        <f>SUM(H22,-G22)</f>
-        <v>-46.400000000001455</v>
-      </c>
+      <c r="A23" s="13"/>
+      <c r="B23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12">
+        <v>580</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/60ee.xlsx
+++ b/sputnik/personal/ee/60ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -524,10 +524,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1103,57 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>44375</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <v>1880</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" ref="D24:D25" si="8">C24-C22</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" ref="F24:F25" si="9">PRODUCT(D24,E24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <f>SUM(F24,F25)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>902.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12">
+        <v>580</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/60ee.xlsx
+++ b/sputnik/personal/ee/60ee.xlsx
@@ -526,8 +526,8 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1112,22 +1112,22 @@
         <v>0</v>
       </c>
       <c r="C24" s="16">
-        <v>1880</v>
+        <v>2050</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" ref="D24:D25" si="8">C24-C22</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E24" s="14">
         <v>4.71</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" ref="F24:F25" si="9">PRODUCT(D24,E24)</f>
-        <v>0</v>
+        <v>800.7</v>
       </c>
       <c r="G24" s="6">
         <f>SUM(F24,F25)</f>
-        <v>0</v>
+        <v>902.7</v>
       </c>
       <c r="H24" s="6">
         <v>902.7</v>
@@ -1139,18 +1139,18 @@
         <v>5</v>
       </c>
       <c r="C25" s="12">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E25" s="12">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>

--- a/sputnik/personal/ee/60ee.xlsx
+++ b/sputnik/personal/ee/60ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -217,6 +217,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -524,10 +525,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1154,6 +1155,73 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>44447</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>2260</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" ref="D26:D27" si="10">C26-C24</f>
+        <v>210</v>
+      </c>
+      <c r="E26" s="14">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" ref="F26:F27" si="11">PRODUCT(D26,E26)</f>
+        <v>1041.5999999999999</v>
+      </c>
+      <c r="G26" s="6">
+        <f>SUM(F26,F27)</f>
+        <v>1242.5999999999999</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1224.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="12">
+        <v>695</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="11"/>
+        <v>201</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="20">
+        <f>SUM(G4:G27)</f>
+        <v>12144.340000000002</v>
+      </c>
+      <c r="H28" s="20">
+        <f>SUM(H4:H27)</f>
+        <v>12080.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="20">
+        <f>SUM(G28,-H28)</f>
+        <v>64.300000000001091</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/60ee.xlsx
+++ b/sputnik/personal/ee/60ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -99,7 +99,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -197,6 +203,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -504,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,31 +562,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>44447</v>
+        <v>44529</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <v>2260</v>
+        <v>2550</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="E2" s="9">
         <v>4.96</v>
       </c>
       <c r="F2" s="12">
-        <f t="shared" ref="F2:F5" si="1">PRODUCT(D2,E2)</f>
-        <v>1041.5999999999999</v>
+        <f t="shared" ref="F2:F3" si="1">PRODUCT(D2,E2)</f>
+        <v>1438.4</v>
       </c>
       <c r="G2" s="4">
         <f>SUM(F2,F3)</f>
-        <v>1242.5999999999999</v>
+        <v>1746.6000000000001</v>
       </c>
       <c r="H2" s="4">
-        <v>1224.7</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -586,49 +595,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="7">
-        <v>695</v>
+        <v>810</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E3" s="7">
         <v>2.68</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="1"/>
-        <v>201</v>
+        <v>308.20000000000005</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>44375</v>
+      <c r="A4" s="17">
+        <v>44447</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="11">
-        <v>2050</v>
+        <v>2260</v>
       </c>
       <c r="D4" s="8">
-        <f>C4-C6</f>
-        <v>170</v>
+        <f t="shared" ref="D4:D5" si="2">C4-C6</f>
+        <v>210</v>
       </c>
       <c r="E4" s="9">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" si="1"/>
-        <v>800.7</v>
+        <f t="shared" ref="F4:F7" si="3">PRODUCT(D4,E4)</f>
+        <v>1041.5999999999999</v>
       </c>
       <c r="G4" s="4">
         <f>SUM(F4,F5)</f>
-        <v>902.7</v>
+        <v>1242.5999999999999</v>
       </c>
       <c r="H4" s="4">
-        <v>902.7</v>
+        <v>1224.7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -637,37 +646,50 @@
         <v>5</v>
       </c>
       <c r="C5" s="7">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="D5" s="8">
-        <f>C5-C7</f>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="E5" s="7">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="1"/>
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>201</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>44333</v>
+        <v>44375</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <v>1880</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>2050</v>
+      </c>
+      <c r="D6" s="8">
+        <f>C6-C8</f>
+        <v>170</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="3"/>
+        <v>800.7</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM(F6,F7)</f>
+        <v>902.7</v>
+      </c>
+      <c r="H6" s="4">
+        <v>902.7</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -675,28 +697,66 @@
         <v>5</v>
       </c>
       <c r="C7" s="7">
-        <v>580</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
+        <v>620</v>
+      </c>
+      <c r="D7" s="8">
+        <f>C7-C9</f>
+        <v>40</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="16">
-        <f>SUM(G2:G7)</f>
+      <c r="A8" s="5">
+        <v>44333</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1880</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>580</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="16">
+        <f>SUM(G4:G9)</f>
         <v>2145.3000000000002</v>
       </c>
-      <c r="H8" s="16">
-        <f>SUM(H2:H7)</f>
+      <c r="H10" s="16">
+        <f>SUM(H4:H9)</f>
         <v>2127.4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9" s="2"/>
-      <c r="H9" s="16">
-        <f>SUM(G8,-H8)</f>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="16">
+        <f>SUM(G10,-H10)</f>
         <v>17.900000000000091</v>
       </c>
     </row>
